--- a/Assets/Data/excel/角色数据表.xlsx
+++ b/Assets/Data/excel/角色数据表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Study\Projects\Unity3d\Gongfu-World\Assets\Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__I_Study\Projects\Gongfu-World\Assets\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B8099-7476-44DC-ADA6-C2E4FB1761B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
+    <workbookView xWindow="1040" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="27" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,11 +179,15 @@
     <t>Willpower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功法列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,21 +423,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
-    <cellStyle name="常规 3 3" xfId="5"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -699,6 +704,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -734,6 +756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -909,34 +948,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
-    <col min="5" max="7" width="3.875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="3.875" style="12" customWidth="1"/>
-    <col min="10" max="14" width="4.625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="12" customWidth="1"/>
-    <col min="16" max="17" width="7.25" style="12" customWidth="1"/>
-    <col min="18" max="24" width="4.75" style="12" customWidth="1"/>
-    <col min="25" max="25" width="26.875" style="12" customWidth="1"/>
-    <col min="26" max="30" width="6.125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="10.25" style="12" customWidth="1"/>
-    <col min="32" max="42" width="7.25" style="12" customWidth="1"/>
+    <col min="1" max="2" width="10.36328125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="3.90625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="3.90625" style="12" customWidth="1"/>
+    <col min="10" max="14" width="4.6328125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="17.90625" style="12" customWidth="1"/>
+    <col min="16" max="17" width="7.26953125" style="12" customWidth="1"/>
+    <col min="18" max="24" width="4.7265625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="26.90625" style="12" customWidth="1"/>
+    <col min="26" max="30" width="6.08984375" style="12" customWidth="1"/>
+    <col min="31" max="31" width="10.26953125" style="12" customWidth="1"/>
+    <col min="32" max="42" width="7.26953125" style="12" customWidth="1"/>
     <col min="43" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:42" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -944,10 +983,10 @@
       <c r="E1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="22" t="s">
         <v>29</v>
       </c>
@@ -984,7 +1023,7 @@
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
     </row>
-    <row r="2" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1066,9 @@
       <c r="N2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -1056,7 +1097,7 @@
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1145,7 @@
       <c r="AO3" s="14"/>
       <c r="AP3" s="14"/>
     </row>
-    <row r="4" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1217,7 @@
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
     </row>
-    <row r="5" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1289,7 @@
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
     </row>
-    <row r="6" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1335,7 @@
       <c r="AO6" s="14"/>
       <c r="AP6" s="14"/>
     </row>
-    <row r="7" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1338,7 +1379,7 @@
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1425,7 @@
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
     </row>
-    <row r="9" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>11</v>
@@ -1454,7 +1495,7 @@
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
     </row>
-    <row r="10" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>12</v>
@@ -1524,7 +1565,7 @@
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
     </row>
-    <row r="11" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1568,7 +1609,7 @@
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
     </row>
-    <row r="12" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1612,7 +1653,7 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
     </row>
-    <row r="13" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1656,7 +1697,7 @@
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
     </row>
-    <row r="14" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1700,7 +1741,7 @@
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
     </row>
-    <row r="15" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1744,7 +1785,7 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
     </row>
-    <row r="16" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1788,7 +1829,7 @@
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
     </row>
-    <row r="17" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1832,7 +1873,7 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
     </row>
-    <row r="18" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1876,7 +1917,7 @@
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
     </row>
-    <row r="19" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1920,7 +1961,7 @@
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
     </row>
-    <row r="20" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1964,7 +2005,7 @@
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2008,7 +2049,7 @@
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2052,7 +2093,7 @@
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2096,7 +2137,7 @@
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2140,7 +2181,7 @@
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2184,7 +2225,7 @@
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2228,7 +2269,7 @@
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2272,7 +2313,7 @@
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2316,7 +2357,7 @@
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2360,7 +2401,7 @@
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2404,7 +2445,7 @@
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2448,7 +2489,7 @@
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2492,7 +2533,7 @@
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2536,7 +2577,7 @@
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2580,7 +2621,7 @@
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2624,7 +2665,7 @@
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2668,7 +2709,7 @@
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2712,7 +2753,7 @@
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2756,7 +2797,7 @@
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2800,7 +2841,7 @@
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2844,7 +2885,7 @@
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2888,7 +2929,7 @@
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2932,7 +2973,7 @@
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2976,7 +3017,7 @@
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3020,7 +3061,7 @@
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3064,7 +3105,7 @@
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3108,7 +3149,7 @@
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3152,7 +3193,7 @@
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3196,7 +3237,7 @@
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3240,7 +3281,7 @@
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3284,7 +3325,7 @@
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3328,7 +3369,7 @@
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3372,7 +3413,7 @@
       <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3416,7 +3457,7 @@
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3460,7 +3501,7 @@
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3504,7 +3545,7 @@
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3548,7 +3589,7 @@
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -3592,7 +3633,7 @@
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -3636,7 +3677,7 @@
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -3680,7 +3721,7 @@
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -3724,7 +3765,7 @@
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -3768,7 +3809,7 @@
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3812,7 +3853,7 @@
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3856,7 +3897,7 @@
       <c r="AO63" s="9"/>
       <c r="AP63" s="9"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3900,7 +3941,7 @@
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -3944,7 +3985,7 @@
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3988,7 +4029,7 @@
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4032,7 +4073,7 @@
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4076,7 +4117,7 @@
       <c r="AO68" s="9"/>
       <c r="AP68" s="9"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4120,7 +4161,7 @@
       <c r="AO69" s="9"/>
       <c r="AP69" s="9"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4164,7 +4205,7 @@
       <c r="AO70" s="9"/>
       <c r="AP70" s="9"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4208,7 +4249,7 @@
       <c r="AO71" s="9"/>
       <c r="AP71" s="9"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4252,7 +4293,7 @@
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4296,7 +4337,7 @@
       <c r="AO73" s="9"/>
       <c r="AP73" s="9"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4340,7 +4381,7 @@
       <c r="AO74" s="9"/>
       <c r="AP74" s="9"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4384,7 +4425,7 @@
       <c r="AO75" s="9"/>
       <c r="AP75" s="9"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4428,7 +4469,7 @@
       <c r="AO76" s="9"/>
       <c r="AP76" s="9"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4472,7 +4513,7 @@
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4516,7 +4557,7 @@
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4560,7 +4601,7 @@
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4604,7 +4645,7 @@
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4648,7 +4689,7 @@
       <c r="AO81" s="9"/>
       <c r="AP81" s="9"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4692,7 +4733,7 @@
       <c r="AO82" s="9"/>
       <c r="AP82" s="9"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4736,7 +4777,7 @@
       <c r="AO83" s="9"/>
       <c r="AP83" s="9"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4780,7 +4821,7 @@
       <c r="AO84" s="9"/>
       <c r="AP84" s="9"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4824,7 +4865,7 @@
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4868,7 +4909,7 @@
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4912,7 +4953,7 @@
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4956,7 +4997,7 @@
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5000,7 +5041,7 @@
       <c r="AO89" s="9"/>
       <c r="AP89" s="9"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -5044,7 +5085,7 @@
       <c r="AO90" s="9"/>
       <c r="AP90" s="9"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5088,7 +5129,7 @@
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5132,7 +5173,7 @@
       <c r="AO92" s="9"/>
       <c r="AP92" s="9"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5176,7 +5217,7 @@
       <c r="AO93" s="9"/>
       <c r="AP93" s="9"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5220,7 +5261,7 @@
       <c r="AO94" s="9"/>
       <c r="AP94" s="9"/>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5264,7 +5305,7 @@
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5308,7 +5349,7 @@
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5352,7 +5393,7 @@
       <c r="AO97" s="9"/>
       <c r="AP97" s="9"/>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5396,7 +5437,7 @@
       <c r="AO98" s="9"/>
       <c r="AP98" s="9"/>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5440,7 +5481,7 @@
       <c r="AO99" s="9"/>
       <c r="AP99" s="9"/>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5484,7 +5525,7 @@
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5528,7 +5569,7 @@
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5572,7 +5613,7 @@
       <c r="AO102" s="9"/>
       <c r="AP102" s="9"/>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5616,7 +5657,7 @@
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -5660,7 +5701,7 @@
       <c r="AO104" s="9"/>
       <c r="AP104" s="9"/>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -5704,7 +5745,7 @@
       <c r="AO105" s="9"/>
       <c r="AP105" s="9"/>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -5748,7 +5789,7 @@
       <c r="AO106" s="9"/>
       <c r="AP106" s="9"/>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -5792,7 +5833,7 @@
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -5836,7 +5877,7 @@
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -5880,7 +5921,7 @@
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -5924,7 +5965,7 @@
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -5968,7 +6009,7 @@
       <c r="AO111" s="9"/>
       <c r="AP111" s="9"/>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6012,7 +6053,7 @@
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6056,7 +6097,7 @@
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6100,7 +6141,7 @@
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6144,7 +6185,7 @@
       <c r="AO115" s="9"/>
       <c r="AP115" s="9"/>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6188,7 +6229,7 @@
       <c r="AO116" s="9"/>
       <c r="AP116" s="9"/>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6232,7 +6273,7 @@
       <c r="AO117" s="9"/>
       <c r="AP117" s="9"/>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6276,7 +6317,7 @@
       <c r="AO118" s="9"/>
       <c r="AP118" s="9"/>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6320,7 +6361,7 @@
       <c r="AO119" s="9"/>
       <c r="AP119" s="9"/>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6364,7 +6405,7 @@
       <c r="AO120" s="9"/>
       <c r="AP120" s="9"/>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6408,7 +6449,7 @@
       <c r="AO121" s="9"/>
       <c r="AP121" s="9"/>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6452,7 +6493,7 @@
       <c r="AO122" s="9"/>
       <c r="AP122" s="9"/>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6496,7 +6537,7 @@
       <c r="AO123" s="9"/>
       <c r="AP123" s="9"/>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6540,7 +6581,7 @@
       <c r="AO124" s="9"/>
       <c r="AP124" s="9"/>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6584,7 +6625,7 @@
       <c r="AO125" s="9"/>
       <c r="AP125" s="9"/>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6628,7 +6669,7 @@
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6672,7 +6713,7 @@
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6716,7 +6757,7 @@
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6760,7 +6801,7 @@
       <c r="AO129" s="9"/>
       <c r="AP129" s="9"/>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -6804,7 +6845,7 @@
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -6848,7 +6889,7 @@
       <c r="AO131" s="9"/>
       <c r="AP131" s="9"/>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -6892,7 +6933,7 @@
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -6936,7 +6977,7 @@
       <c r="AO133" s="9"/>
       <c r="AP133" s="9"/>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -6980,7 +7021,7 @@
       <c r="AO134" s="9"/>
       <c r="AP134" s="9"/>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7024,7 +7065,7 @@
       <c r="AO135" s="9"/>
       <c r="AP135" s="9"/>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7068,7 +7109,7 @@
       <c r="AO136" s="9"/>
       <c r="AP136" s="9"/>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7112,7 +7153,7 @@
       <c r="AO137" s="9"/>
       <c r="AP137" s="9"/>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7156,7 +7197,7 @@
       <c r="AO138" s="9"/>
       <c r="AP138" s="9"/>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7200,7 +7241,7 @@
       <c r="AO139" s="9"/>
       <c r="AP139" s="9"/>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7244,7 +7285,7 @@
       <c r="AO140" s="9"/>
       <c r="AP140" s="9"/>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -7288,7 +7329,7 @@
       <c r="AO141" s="9"/>
       <c r="AP141" s="9"/>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7332,7 +7373,7 @@
       <c r="AO142" s="9"/>
       <c r="AP142" s="9"/>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7376,7 +7417,7 @@
       <c r="AO143" s="9"/>
       <c r="AP143" s="9"/>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -7420,7 +7461,7 @@
       <c r="AO144" s="9"/>
       <c r="AP144" s="9"/>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7464,7 +7505,7 @@
       <c r="AO145" s="9"/>
       <c r="AP145" s="9"/>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -7508,7 +7549,7 @@
       <c r="AO146" s="9"/>
       <c r="AP146" s="9"/>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7552,7 +7593,7 @@
       <c r="AO147" s="9"/>
       <c r="AP147" s="9"/>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7596,7 +7637,7 @@
       <c r="AO148" s="9"/>
       <c r="AP148" s="9"/>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7640,7 +7681,7 @@
       <c r="AO149" s="9"/>
       <c r="AP149" s="9"/>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7684,7 +7725,7 @@
       <c r="AO150" s="9"/>
       <c r="AP150" s="9"/>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7728,7 +7769,7 @@
       <c r="AO151" s="9"/>
       <c r="AP151" s="9"/>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -7772,7 +7813,7 @@
       <c r="AO152" s="9"/>
       <c r="AP152" s="9"/>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -7816,7 +7857,7 @@
       <c r="AO153" s="9"/>
       <c r="AP153" s="9"/>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -7860,7 +7901,7 @@
       <c r="AO154" s="9"/>
       <c r="AP154" s="9"/>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -7904,7 +7945,7 @@
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -7948,7 +7989,7 @@
       <c r="AO156" s="9"/>
       <c r="AP156" s="9"/>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -7992,7 +8033,7 @@
       <c r="AO157" s="9"/>
       <c r="AP157" s="9"/>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8036,7 +8077,7 @@
       <c r="AO158" s="9"/>
       <c r="AP158" s="9"/>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8080,7 +8121,7 @@
       <c r="AO159" s="9"/>
       <c r="AP159" s="9"/>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8124,7 +8165,7 @@
       <c r="AO160" s="9"/>
       <c r="AP160" s="9"/>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>

--- a/Assets/Data/excel/角色数据表.xlsx
+++ b/Assets/Data/excel/角色数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__I_Study\Projects\Gongfu-World\Assets\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B8099-7476-44DC-ADA6-C2E4FB1761B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD815B-065A-4E20-A70D-217F34423D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,42 @@
   </si>
   <si>
     <t>功法列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned内功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned身法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned绝技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned拳掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned腿法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"猴拳":354,"戳眼抓耳功":564}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"猴拳":874,"戳眼抓耳功":456}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"撩阴腿":454}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +991,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -965,9 +1001,12 @@
     <col min="5" max="7" width="3.90625" style="10" customWidth="1"/>
     <col min="8" max="9" width="3.90625" style="12" customWidth="1"/>
     <col min="10" max="14" width="4.6328125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="17.90625" style="12" customWidth="1"/>
-    <col min="16" max="17" width="7.26953125" style="12" customWidth="1"/>
-    <col min="18" max="24" width="4.7265625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="28.26953125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="12" style="12" customWidth="1"/>
+    <col min="20" max="24" width="4.7265625" style="12" customWidth="1"/>
     <col min="25" max="25" width="26.90625" style="12" customWidth="1"/>
     <col min="26" max="30" width="6.08984375" style="12" customWidth="1"/>
     <col min="31" max="31" width="10.26953125" style="12" customWidth="1"/>
@@ -1188,11 +1227,21 @@
       <c r="N4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
@@ -1260,7 +1309,9 @@
       <c r="N5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -1466,11 +1517,15 @@
       <c r="N9" s="18">
         <v>90</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="S9" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
@@ -1536,7 +1591,9 @@
       <c r="N10" s="18">
         <v>90</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>

--- a/Assets/Data/excel/角色数据表.xlsx
+++ b/Assets/Data/excel/角色数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__I_Study\Projects\Gongfu-World\Assets\Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Study\Projects\Unity3d\Gongfu-World\Assets\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD815B-065A-4E20-A70D-217F34423D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="27" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +73,6 @@
   </si>
   <si>
     <t>侠客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enegy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dexterity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,22 +191,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"猴拳":354,"戳眼抓耳功":564}</t>
+    <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"猴拳":874,"戳眼抓耳功":456}</t>
+    <t>#Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"撩阴腿":454}</t>
+    <t>Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"猴拳":1530,"戳眼抓耳功":1564}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"猴拳":1874,"戳眼抓耳功":1456}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"撩阴腿":1454}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,12 +479,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 3 3" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -740,23 +751,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -792,23 +786,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,73 +961,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.36328125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="10" customWidth="1"/>
-    <col min="5" max="7" width="3.90625" style="10" customWidth="1"/>
-    <col min="8" max="9" width="3.90625" style="12" customWidth="1"/>
-    <col min="10" max="14" width="4.6328125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="28.26953125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="12" style="12" customWidth="1"/>
-    <col min="20" max="24" width="4.7265625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="26.90625" style="12" customWidth="1"/>
-    <col min="26" max="30" width="6.08984375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="10.26953125" style="12" customWidth="1"/>
-    <col min="32" max="42" width="7.26953125" style="12" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
+    <col min="5" max="10" width="4.625" style="12" customWidth="1"/>
+    <col min="11" max="13" width="3.875" style="10" customWidth="1"/>
+    <col min="14" max="15" width="3.875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="28.25" style="12" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="20.125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="12" customWidth="1"/>
+    <col min="21" max="25" width="4.75" style="12" customWidth="1"/>
+    <col min="26" max="26" width="26.875" style="12" customWidth="1"/>
+    <col min="27" max="31" width="6.125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="10.25" style="12" customWidth="1"/>
+    <col min="33" max="43" width="7.25" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
+      <c r="E1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="23"/>
       <c r="U1" s="23"/>
       <c r="V1" s="23"/>
       <c r="W1" s="23"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="17"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="5"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="4"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
@@ -1061,8 +1038,9 @@
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
-    </row>
-    <row r="2" spans="1:42" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="5"/>
+    </row>
+    <row r="2" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,61 +1048,63 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>33</v>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="22"/>
       <c r="AB2" s="23"/>
       <c r="AC2" s="23"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="5"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="4"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -1135,8 +1115,9 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
-    </row>
-    <row r="3" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="5"/>
+    </row>
+    <row r="3" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1145,15 +1126,15 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -1166,13 +1147,13 @@
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="14"/>
+      <c r="AF3" s="15"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
@@ -1183,8 +1164,9 @@
       <c r="AN3" s="14"/>
       <c r="AO3" s="14"/>
       <c r="AP3" s="14"/>
-    </row>
-    <row r="4" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="14"/>
+    </row>
+    <row r="4" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1192,69 +1174,71 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="K4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="R4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="15"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
-      <c r="AF4" s="14"/>
+      <c r="AF4" s="15"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -1265,8 +1249,9 @@
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
-    </row>
-    <row r="5" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="14"/>
+    </row>
+    <row r="5" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>1</v>
@@ -1289,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1</v>
@@ -1309,10 +1294,12 @@
       <c r="N5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="14"/>
+      <c r="O5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -1339,23 +1326,24 @@
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
-    </row>
-    <row r="6" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="14"/>
+    </row>
+    <row r="6" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -1385,21 +1373,22 @@
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
       <c r="AP6" s="14"/>
-    </row>
-    <row r="7" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="14"/>
+    </row>
+    <row r="7" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -1429,25 +1418,26 @@
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
-    </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="14"/>
+    </row>
+    <row r="8" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
@@ -1466,7 +1456,7 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
-      <c r="AH8" s="9"/>
+      <c r="AH8" s="19"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
@@ -1475,8 +1465,9 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-    </row>
-    <row r="9" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="9"/>
+    </row>
+    <row r="9" spans="1:43" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>11</v>
@@ -1488,45 +1479,47 @@
         <v>500</v>
       </c>
       <c r="E9" s="18">
+        <v>9</v>
+      </c>
+      <c r="F9" s="18">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18">
+        <v>15</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18">
+        <v>7</v>
+      </c>
+      <c r="J9" s="18">
+        <v>12</v>
+      </c>
+      <c r="K9" s="18">
         <v>50</v>
       </c>
-      <c r="F9" s="18">
+      <c r="L9" s="18">
         <v>60</v>
       </c>
-      <c r="G9" s="18">
+      <c r="M9" s="18">
         <v>70</v>
       </c>
-      <c r="H9" s="18">
+      <c r="N9" s="18">
         <v>80</v>
       </c>
-      <c r="I9" s="18">
+      <c r="O9" s="18">
         <v>90</v>
-      </c>
-      <c r="J9" s="18">
-        <v>50</v>
-      </c>
-      <c r="K9" s="18">
-        <v>60</v>
-      </c>
-      <c r="L9" s="18">
-        <v>70</v>
-      </c>
-      <c r="M9" s="18">
-        <v>80</v>
-      </c>
-      <c r="N9" s="18">
-        <v>90</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
@@ -1549,8 +1542,9 @@
       <c r="AN9" s="19"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
-    </row>
-    <row r="10" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="19"/>
+    </row>
+    <row r="10" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>12</v>
@@ -1562,42 +1556,44 @@
         <v>500</v>
       </c>
       <c r="E10" s="18">
+        <v>18</v>
+      </c>
+      <c r="F10" s="18">
+        <v>11</v>
+      </c>
+      <c r="G10" s="18">
+        <v>12</v>
+      </c>
+      <c r="H10" s="18">
+        <v>11</v>
+      </c>
+      <c r="I10" s="18">
+        <v>12</v>
+      </c>
+      <c r="J10" s="18">
+        <v>9</v>
+      </c>
+      <c r="K10" s="18">
         <v>50</v>
       </c>
-      <c r="F10" s="18">
+      <c r="L10" s="18">
         <v>60</v>
       </c>
-      <c r="G10" s="18">
+      <c r="M10" s="18">
         <v>70</v>
       </c>
-      <c r="H10" s="18">
-        <v>80</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="N10" s="18">
+        <v>102</v>
+      </c>
+      <c r="O10" s="18">
         <v>90</v>
-      </c>
-      <c r="J10" s="18">
-        <v>50</v>
-      </c>
-      <c r="K10" s="18">
-        <v>60</v>
-      </c>
-      <c r="L10" s="18">
-        <v>70</v>
-      </c>
-      <c r="M10" s="18">
-        <v>80</v>
-      </c>
-      <c r="N10" s="18">
-        <v>90</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="S10" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
@@ -1621,21 +1617,22 @@
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
-    </row>
-    <row r="11" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="19"/>
+    </row>
+    <row r="11" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -1665,21 +1662,22 @@
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
-    </row>
-    <row r="12" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="19"/>
+    </row>
+    <row r="12" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -1709,21 +1707,22 @@
       <c r="AN12" s="19"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
-    </row>
-    <row r="13" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="19"/>
+    </row>
+    <row r="13" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -1753,21 +1752,22 @@
       <c r="AN13" s="19"/>
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
-    </row>
-    <row r="14" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="19"/>
+    </row>
+    <row r="14" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
@@ -1797,21 +1797,22 @@
       <c r="AN14" s="19"/>
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
-    </row>
-    <row r="15" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="19"/>
+    </row>
+    <row r="15" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
@@ -1841,21 +1842,22 @@
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
-    </row>
-    <row r="16" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="19"/>
+    </row>
+    <row r="16" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -1885,21 +1887,22 @@
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
-    </row>
-    <row r="17" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="19"/>
+    </row>
+    <row r="17" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
@@ -1929,21 +1932,22 @@
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
-    </row>
-    <row r="18" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="19"/>
+    </row>
+    <row r="18" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
@@ -1973,21 +1977,22 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
-    </row>
-    <row r="19" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="19"/>
+    </row>
+    <row r="19" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
@@ -2017,21 +2022,22 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-    </row>
-    <row r="20" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="19"/>
+    </row>
+    <row r="20" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -2061,21 +2067,22 @@
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="19"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -2105,21 +2112,22 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="9"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -2149,21 +2157,22 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="9"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -2193,21 +2202,22 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="9"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -2237,21 +2247,22 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="9"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -2281,21 +2292,22 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="9"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -2325,21 +2337,22 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="9"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -2369,21 +2382,22 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="9"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -2413,21 +2427,22 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="9"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -2457,21 +2472,22 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="9"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -2501,21 +2517,22 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="9"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -2545,21 +2562,22 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="9"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -2589,21 +2607,22 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="9"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -2633,21 +2652,22 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="9"/>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -2677,21 +2697,22 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="9"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -2721,21 +2742,22 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="9"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -2765,21 +2787,22 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="9"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -2809,21 +2832,22 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="9"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -2853,21 +2877,22 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="9"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -2897,21 +2922,22 @@
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="9"/>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -2941,21 +2967,22 @@
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="9"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -2985,21 +3012,22 @@
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="9"/>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -3029,21 +3057,22 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="9"/>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -3073,21 +3102,22 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="9"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -3117,21 +3147,22 @@
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="9"/>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -3161,21 +3192,22 @@
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="9"/>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -3205,21 +3237,22 @@
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="9"/>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -3249,21 +3282,22 @@
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="9"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -3293,21 +3327,22 @@
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="9"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -3337,21 +3372,22 @@
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="9"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -3381,21 +3417,22 @@
       <c r="AN50" s="9"/>
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="9"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -3425,21 +3462,22 @@
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="9"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -3469,21 +3507,22 @@
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="9"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -3513,21 +3552,22 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="9"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
@@ -3557,21 +3597,22 @@
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="9"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
@@ -3601,21 +3642,22 @@
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="9"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
@@ -3645,21 +3687,22 @@
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="9"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -3689,21 +3732,22 @@
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="9"/>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -3733,21 +3777,22 @@
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="9"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -3777,21 +3822,22 @@
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="9"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -3821,21 +3867,22 @@
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="9"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
@@ -3865,21 +3912,22 @@
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="9"/>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -3909,21 +3957,22 @@
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="9"/>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
@@ -3953,21 +4002,22 @@
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
       <c r="AP63" s="9"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="9"/>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
@@ -3997,21 +4047,22 @@
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="9"/>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
@@ -4041,21 +4092,22 @@
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="9"/>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
@@ -4085,21 +4137,22 @@
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="9"/>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -4129,21 +4182,22 @@
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="9"/>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
@@ -4173,21 +4227,22 @@
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
       <c r="AP68" s="9"/>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="9"/>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
@@ -4217,21 +4272,22 @@
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
       <c r="AP69" s="9"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="9"/>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
@@ -4261,21 +4317,22 @@
       <c r="AN70" s="9"/>
       <c r="AO70" s="9"/>
       <c r="AP70" s="9"/>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="9"/>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
@@ -4305,21 +4362,22 @@
       <c r="AN71" s="9"/>
       <c r="AO71" s="9"/>
       <c r="AP71" s="9"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="9"/>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
@@ -4349,21 +4407,22 @@
       <c r="AN72" s="9"/>
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="9"/>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -4393,21 +4452,22 @@
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
       <c r="AP73" s="9"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="9"/>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
@@ -4437,21 +4497,22 @@
       <c r="AN74" s="9"/>
       <c r="AO74" s="9"/>
       <c r="AP74" s="9"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="9"/>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -4481,21 +4542,22 @@
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
       <c r="AP75" s="9"/>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="9"/>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
@@ -4525,21 +4587,22 @@
       <c r="AN76" s="9"/>
       <c r="AO76" s="9"/>
       <c r="AP76" s="9"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="9"/>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
@@ -4569,21 +4632,22 @@
       <c r="AN77" s="9"/>
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="9"/>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
@@ -4613,21 +4677,22 @@
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="9"/>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
@@ -4657,21 +4722,22 @@
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="9"/>
+    </row>
+    <row r="80" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
@@ -4701,21 +4767,22 @@
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="9"/>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
@@ -4745,21 +4812,22 @@
       <c r="AN81" s="9"/>
       <c r="AO81" s="9"/>
       <c r="AP81" s="9"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="9"/>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
@@ -4789,21 +4857,22 @@
       <c r="AN82" s="9"/>
       <c r="AO82" s="9"/>
       <c r="AP82" s="9"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="9"/>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
@@ -4833,21 +4902,22 @@
       <c r="AN83" s="9"/>
       <c r="AO83" s="9"/>
       <c r="AP83" s="9"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="9"/>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
@@ -4877,21 +4947,22 @@
       <c r="AN84" s="9"/>
       <c r="AO84" s="9"/>
       <c r="AP84" s="9"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="9"/>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
@@ -4921,21 +4992,22 @@
       <c r="AN85" s="9"/>
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="9"/>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -4965,21 +5037,22 @@
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="9"/>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
@@ -5009,21 +5082,22 @@
       <c r="AN87" s="9"/>
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="9"/>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
@@ -5053,21 +5127,22 @@
       <c r="AN88" s="9"/>
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="9"/>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
@@ -5097,21 +5172,22 @@
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
       <c r="AP89" s="9"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="9"/>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
@@ -5141,21 +5217,22 @@
       <c r="AN90" s="9"/>
       <c r="AO90" s="9"/>
       <c r="AP90" s="9"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="9"/>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
@@ -5185,21 +5262,22 @@
       <c r="AN91" s="9"/>
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="9"/>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
@@ -5229,21 +5307,22 @@
       <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
       <c r="AP92" s="9"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="9"/>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
@@ -5273,21 +5352,22 @@
       <c r="AN93" s="9"/>
       <c r="AO93" s="9"/>
       <c r="AP93" s="9"/>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="9"/>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
@@ -5317,21 +5397,22 @@
       <c r="AN94" s="9"/>
       <c r="AO94" s="9"/>
       <c r="AP94" s="9"/>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="9"/>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
@@ -5361,21 +5442,22 @@
       <c r="AN95" s="9"/>
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="9"/>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
@@ -5405,21 +5487,22 @@
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ96" s="9"/>
+    </row>
+    <row r="97" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
@@ -5449,21 +5532,22 @@
       <c r="AN97" s="9"/>
       <c r="AO97" s="9"/>
       <c r="AP97" s="9"/>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ97" s="9"/>
+    </row>
+    <row r="98" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
@@ -5493,21 +5577,22 @@
       <c r="AN98" s="9"/>
       <c r="AO98" s="9"/>
       <c r="AP98" s="9"/>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ98" s="9"/>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
@@ -5537,21 +5622,22 @@
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
       <c r="AP99" s="9"/>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ99" s="9"/>
+    </row>
+    <row r="100" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
@@ -5581,21 +5667,22 @@
       <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ100" s="9"/>
+    </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
@@ -5625,21 +5712,22 @@
       <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ101" s="9"/>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
@@ -5669,21 +5757,22 @@
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
       <c r="AP102" s="9"/>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ102" s="9"/>
+    </row>
+    <row r="103" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
@@ -5713,21 +5802,22 @@
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ103" s="9"/>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
@@ -5757,21 +5847,22 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9"/>
       <c r="AP104" s="9"/>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ104" s="9"/>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
@@ -5801,21 +5892,22 @@
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
       <c r="AP105" s="9"/>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ105" s="9"/>
+    </row>
+    <row r="106" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
@@ -5845,21 +5937,22 @@
       <c r="AN106" s="9"/>
       <c r="AO106" s="9"/>
       <c r="AP106" s="9"/>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ106" s="9"/>
+    </row>
+    <row r="107" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
@@ -5889,21 +5982,22 @@
       <c r="AN107" s="9"/>
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ107" s="9"/>
+    </row>
+    <row r="108" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
@@ -5933,21 +6027,22 @@
       <c r="AN108" s="9"/>
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ108" s="9"/>
+    </row>
+    <row r="109" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
@@ -5977,21 +6072,22 @@
       <c r="AN109" s="9"/>
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ109" s="9"/>
+    </row>
+    <row r="110" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
@@ -6021,21 +6117,22 @@
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ110" s="9"/>
+    </row>
+    <row r="111" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
@@ -6065,21 +6162,22 @@
       <c r="AN111" s="9"/>
       <c r="AO111" s="9"/>
       <c r="AP111" s="9"/>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ111" s="9"/>
+    </row>
+    <row r="112" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
@@ -6109,21 +6207,22 @@
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
-    </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ112" s="9"/>
+    </row>
+    <row r="113" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
@@ -6153,21 +6252,22 @@
       <c r="AN113" s="9"/>
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ113" s="9"/>
+    </row>
+    <row r="114" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
@@ -6197,21 +6297,22 @@
       <c r="AN114" s="9"/>
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ114" s="9"/>
+    </row>
+    <row r="115" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
@@ -6241,21 +6342,22 @@
       <c r="AN115" s="9"/>
       <c r="AO115" s="9"/>
       <c r="AP115" s="9"/>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ115" s="9"/>
+    </row>
+    <row r="116" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
@@ -6285,21 +6387,22 @@
       <c r="AN116" s="9"/>
       <c r="AO116" s="9"/>
       <c r="AP116" s="9"/>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ116" s="9"/>
+    </row>
+    <row r="117" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
@@ -6329,21 +6432,22 @@
       <c r="AN117" s="9"/>
       <c r="AO117" s="9"/>
       <c r="AP117" s="9"/>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ117" s="9"/>
+    </row>
+    <row r="118" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
@@ -6373,21 +6477,22 @@
       <c r="AN118" s="9"/>
       <c r="AO118" s="9"/>
       <c r="AP118" s="9"/>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ118" s="9"/>
+    </row>
+    <row r="119" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
@@ -6417,21 +6522,22 @@
       <c r="AN119" s="9"/>
       <c r="AO119" s="9"/>
       <c r="AP119" s="9"/>
-    </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ119" s="9"/>
+    </row>
+    <row r="120" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
@@ -6461,21 +6567,22 @@
       <c r="AN120" s="9"/>
       <c r="AO120" s="9"/>
       <c r="AP120" s="9"/>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ120" s="9"/>
+    </row>
+    <row r="121" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
@@ -6505,21 +6612,22 @@
       <c r="AN121" s="9"/>
       <c r="AO121" s="9"/>
       <c r="AP121" s="9"/>
-    </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ121" s="9"/>
+    </row>
+    <row r="122" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
@@ -6549,21 +6657,22 @@
       <c r="AN122" s="9"/>
       <c r="AO122" s="9"/>
       <c r="AP122" s="9"/>
-    </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ122" s="9"/>
+    </row>
+    <row r="123" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
@@ -6593,21 +6702,22 @@
       <c r="AN123" s="9"/>
       <c r="AO123" s="9"/>
       <c r="AP123" s="9"/>
-    </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ123" s="9"/>
+    </row>
+    <row r="124" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="9"/>
@@ -6637,21 +6747,22 @@
       <c r="AN124" s="9"/>
       <c r="AO124" s="9"/>
       <c r="AP124" s="9"/>
-    </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ124" s="9"/>
+    </row>
+    <row r="125" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
@@ -6681,21 +6792,22 @@
       <c r="AN125" s="9"/>
       <c r="AO125" s="9"/>
       <c r="AP125" s="9"/>
-    </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ125" s="9"/>
+    </row>
+    <row r="126" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
@@ -6725,21 +6837,22 @@
       <c r="AN126" s="9"/>
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
-    </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ126" s="9"/>
+    </row>
+    <row r="127" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
@@ -6769,21 +6882,22 @@
       <c r="AN127" s="9"/>
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
-    </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ127" s="9"/>
+    </row>
+    <row r="128" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
@@ -6813,21 +6927,22 @@
       <c r="AN128" s="9"/>
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ128" s="9"/>
+    </row>
+    <row r="129" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
@@ -6857,21 +6972,22 @@
       <c r="AN129" s="9"/>
       <c r="AO129" s="9"/>
       <c r="AP129" s="9"/>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ129" s="9"/>
+    </row>
+    <row r="130" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
@@ -6901,21 +7017,22 @@
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ130" s="9"/>
+    </row>
+    <row r="131" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
@@ -6945,21 +7062,22 @@
       <c r="AN131" s="9"/>
       <c r="AO131" s="9"/>
       <c r="AP131" s="9"/>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ131" s="9"/>
+    </row>
+    <row r="132" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
@@ -6989,21 +7107,22 @@
       <c r="AN132" s="9"/>
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ132" s="9"/>
+    </row>
+    <row r="133" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
       <c r="N133" s="9"/>
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
@@ -7033,21 +7152,22 @@
       <c r="AN133" s="9"/>
       <c r="AO133" s="9"/>
       <c r="AP133" s="9"/>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ133" s="9"/>
+    </row>
+    <row r="134" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
@@ -7077,21 +7197,22 @@
       <c r="AN134" s="9"/>
       <c r="AO134" s="9"/>
       <c r="AP134" s="9"/>
-    </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ134" s="9"/>
+    </row>
+    <row r="135" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
@@ -7121,21 +7242,22 @@
       <c r="AN135" s="9"/>
       <c r="AO135" s="9"/>
       <c r="AP135" s="9"/>
-    </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ135" s="9"/>
+    </row>
+    <row r="136" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
@@ -7165,21 +7287,22 @@
       <c r="AN136" s="9"/>
       <c r="AO136" s="9"/>
       <c r="AP136" s="9"/>
-    </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ136" s="9"/>
+    </row>
+    <row r="137" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
@@ -7209,21 +7332,22 @@
       <c r="AN137" s="9"/>
       <c r="AO137" s="9"/>
       <c r="AP137" s="9"/>
-    </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ137" s="9"/>
+    </row>
+    <row r="138" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
@@ -7253,21 +7377,22 @@
       <c r="AN138" s="9"/>
       <c r="AO138" s="9"/>
       <c r="AP138" s="9"/>
-    </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ138" s="9"/>
+    </row>
+    <row r="139" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
@@ -7297,21 +7422,22 @@
       <c r="AN139" s="9"/>
       <c r="AO139" s="9"/>
       <c r="AP139" s="9"/>
-    </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ139" s="9"/>
+    </row>
+    <row r="140" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
@@ -7341,21 +7467,22 @@
       <c r="AN140" s="9"/>
       <c r="AO140" s="9"/>
       <c r="AP140" s="9"/>
-    </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ140" s="9"/>
+    </row>
+    <row r="141" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
@@ -7385,21 +7512,22 @@
       <c r="AN141" s="9"/>
       <c r="AO141" s="9"/>
       <c r="AP141" s="9"/>
-    </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ141" s="9"/>
+    </row>
+    <row r="142" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
@@ -7429,21 +7557,22 @@
       <c r="AN142" s="9"/>
       <c r="AO142" s="9"/>
       <c r="AP142" s="9"/>
-    </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ142" s="9"/>
+    </row>
+    <row r="143" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
@@ -7473,21 +7602,22 @@
       <c r="AN143" s="9"/>
       <c r="AO143" s="9"/>
       <c r="AP143" s="9"/>
-    </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ143" s="9"/>
+    </row>
+    <row r="144" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
@@ -7517,21 +7647,22 @@
       <c r="AN144" s="9"/>
       <c r="AO144" s="9"/>
       <c r="AP144" s="9"/>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ144" s="9"/>
+    </row>
+    <row r="145" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
@@ -7561,21 +7692,22 @@
       <c r="AN145" s="9"/>
       <c r="AO145" s="9"/>
       <c r="AP145" s="9"/>
-    </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ145" s="9"/>
+    </row>
+    <row r="146" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
@@ -7605,21 +7737,22 @@
       <c r="AN146" s="9"/>
       <c r="AO146" s="9"/>
       <c r="AP146" s="9"/>
-    </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ146" s="9"/>
+    </row>
+    <row r="147" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
@@ -7649,21 +7782,22 @@
       <c r="AN147" s="9"/>
       <c r="AO147" s="9"/>
       <c r="AP147" s="9"/>
-    </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ147" s="9"/>
+    </row>
+    <row r="148" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
@@ -7693,21 +7827,22 @@
       <c r="AN148" s="9"/>
       <c r="AO148" s="9"/>
       <c r="AP148" s="9"/>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ148" s="9"/>
+    </row>
+    <row r="149" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
@@ -7737,21 +7872,22 @@
       <c r="AN149" s="9"/>
       <c r="AO149" s="9"/>
       <c r="AP149" s="9"/>
-    </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ149" s="9"/>
+    </row>
+    <row r="150" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
@@ -7781,21 +7917,22 @@
       <c r="AN150" s="9"/>
       <c r="AO150" s="9"/>
       <c r="AP150" s="9"/>
-    </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ150" s="9"/>
+    </row>
+    <row r="151" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
@@ -7825,21 +7962,22 @@
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
       <c r="AP151" s="9"/>
-    </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ151" s="9"/>
+    </row>
+    <row r="152" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
@@ -7869,21 +8007,22 @@
       <c r="AN152" s="9"/>
       <c r="AO152" s="9"/>
       <c r="AP152" s="9"/>
-    </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ152" s="9"/>
+    </row>
+    <row r="153" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
       <c r="N153" s="9"/>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
@@ -7913,21 +8052,22 @@
       <c r="AN153" s="9"/>
       <c r="AO153" s="9"/>
       <c r="AP153" s="9"/>
-    </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ153" s="9"/>
+    </row>
+    <row r="154" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
@@ -7957,21 +8097,22 @@
       <c r="AN154" s="9"/>
       <c r="AO154" s="9"/>
       <c r="AP154" s="9"/>
-    </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ154" s="9"/>
+    </row>
+    <row r="155" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
@@ -8001,21 +8142,22 @@
       <c r="AN155" s="9"/>
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
-    </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ155" s="9"/>
+    </row>
+    <row r="156" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
@@ -8045,21 +8187,22 @@
       <c r="AN156" s="9"/>
       <c r="AO156" s="9"/>
       <c r="AP156" s="9"/>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ156" s="9"/>
+    </row>
+    <row r="157" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
-      <c r="M157" s="9"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
@@ -8089,21 +8232,22 @@
       <c r="AN157" s="9"/>
       <c r="AO157" s="9"/>
       <c r="AP157" s="9"/>
-    </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ157" s="9"/>
+    </row>
+    <row r="158" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
@@ -8133,21 +8277,22 @@
       <c r="AN158" s="9"/>
       <c r="AO158" s="9"/>
       <c r="AP158" s="9"/>
-    </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ158" s="9"/>
+    </row>
+    <row r="159" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
@@ -8177,21 +8322,22 @@
       <c r="AN159" s="9"/>
       <c r="AO159" s="9"/>
       <c r="AP159" s="9"/>
-    </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ159" s="9"/>
+    </row>
+    <row r="160" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
@@ -8221,21 +8367,22 @@
       <c r="AN160" s="9"/>
       <c r="AO160" s="9"/>
       <c r="AP160" s="9"/>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ160" s="9"/>
+    </row>
+    <row r="161" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
@@ -8265,17 +8412,19 @@
       <c r="AN161" s="9"/>
       <c r="AO161" s="9"/>
       <c r="AP161" s="9"/>
+      <c r="AQ161" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
+  <mergeCells count="6">
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B11:D11 B2:D2 B4:D7 B19:D1048576 E5:N5">
+  <conditionalFormatting sqref="B11:D11 B2:D2 B4:D7 B19:D1048576 E5:O5">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/角色数据表.xlsx
+++ b/Assets/Data/excel/角色数据表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,18 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"猴拳":1530,"戳眼抓耳功":1564}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"猴拳":1874,"戳眼抓耳功":1456}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"撩阴腿":1454}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +216,29 @@
   </si>
   <si>
     <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法</t>
+  </si>
+  <si>
+    <t>剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"戳眼抓耳功_D":2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"昆仑剑法_D":2000}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +468,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,13 +982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ161"/>
+  <dimension ref="A1:AS161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -977,59 +997,59 @@
     <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
     <col min="5" max="10" width="4.625" style="12" customWidth="1"/>
     <col min="11" max="13" width="3.875" style="10" customWidth="1"/>
-    <col min="14" max="15" width="3.875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="28.25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="20.125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.75" style="12" customWidth="1"/>
-    <col min="21" max="25" width="4.75" style="12" customWidth="1"/>
-    <col min="26" max="26" width="26.875" style="12" customWidth="1"/>
-    <col min="27" max="31" width="6.125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="10.25" style="12" customWidth="1"/>
-    <col min="33" max="43" width="7.25" style="12" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="10"/>
+    <col min="14" max="16" width="3.875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="28.25" style="12" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="20.125" style="12" customWidth="1"/>
+    <col min="21" max="22" width="18.75" style="12" customWidth="1"/>
+    <col min="23" max="27" width="4.75" style="12" customWidth="1"/>
+    <col min="28" max="28" width="26.875" style="12" customWidth="1"/>
+    <col min="29" max="33" width="6.125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="10.25" style="12" customWidth="1"/>
+    <col min="35" max="45" width="7.25" style="12" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="3"/>
       <c r="AC1" s="17"/>
       <c r="AD1" s="17"/>
       <c r="AE1" s="17"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="4"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
@@ -1039,8 +1059,10 @@
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
-    </row>
-    <row r="2" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+    </row>
+    <row r="2" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>30</v>
@@ -1087,26 +1109,28 @@
         <v>24</v>
       </c>
       <c r="P2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="23"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="4"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
@@ -1116,8 +1140,10 @@
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
-    </row>
-    <row r="3" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+    </row>
+    <row r="3" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1148,14 +1174,14 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
       <c r="AK3" s="14"/>
@@ -1165,8 +1191,10 @@
       <c r="AO3" s="14"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
-    </row>
-    <row r="4" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+    </row>
+    <row r="4" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1205,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>45</v>
@@ -1189,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>34</v>
@@ -1213,34 +1241,38 @@
         <v>23</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
       <c r="AK4" s="14"/>
@@ -1250,8 +1282,10 @@
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
       <c r="AQ4" s="14"/>
-    </row>
-    <row r="5" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+    </row>
+    <row r="5" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1</v>
@@ -1297,10 +1331,12 @@
       <c r="O5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -1327,8 +1363,10 @@
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
-    </row>
-    <row r="6" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+    </row>
+    <row r="6" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1374,8 +1412,10 @@
       <c r="AO6" s="14"/>
       <c r="AP6" s="14"/>
       <c r="AQ6" s="14"/>
-    </row>
-    <row r="7" spans="1:43" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+    </row>
+    <row r="7" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1419,8 +1459,10 @@
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
       <c r="AQ7" s="14"/>
-    </row>
-    <row r="8" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+    </row>
+    <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1480,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="19"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
@@ -1457,8 +1499,8 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
@@ -1466,8 +1508,10 @@
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
-    </row>
-    <row r="9" spans="1:43" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+    </row>
+    <row r="9" spans="1:45" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>11</v>
@@ -1479,46 +1523,46 @@
         <v>500</v>
       </c>
       <c r="E9" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L9" s="18">
         <v>60</v>
       </c>
       <c r="M9" s="18">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N9" s="18">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O9" s="18">
-        <v>90</v>
-      </c>
-      <c r="P9" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="P9" s="18">
+        <v>60</v>
+      </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="S9" s="19"/>
       <c r="T9" s="19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
@@ -1543,8 +1587,10 @@
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
-    </row>
-    <row r="10" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+    </row>
+    <row r="10" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>12</v>
@@ -1556,47 +1602,49 @@
         <v>500</v>
       </c>
       <c r="E10" s="18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L10" s="18">
         <v>60</v>
       </c>
       <c r="M10" s="18">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N10" s="18">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="O10" s="18">
-        <v>90</v>
-      </c>
-      <c r="P10" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="P10" s="18">
+        <v>60</v>
+      </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="S10" s="19"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="V10" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -1618,8 +1666,10 @@
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
-    </row>
-    <row r="11" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+    </row>
+    <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1663,8 +1713,10 @@
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
-    </row>
-    <row r="12" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+    </row>
+    <row r="12" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1708,8 +1760,10 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
-    </row>
-    <row r="13" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+    </row>
+    <row r="13" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1753,8 +1807,10 @@
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
-    </row>
-    <row r="14" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+    </row>
+    <row r="14" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1798,8 +1854,10 @@
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
-    </row>
-    <row r="15" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+    </row>
+    <row r="15" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1843,8 +1901,10 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
-    </row>
-    <row r="16" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+    </row>
+    <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1888,8 +1948,10 @@
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
-    </row>
-    <row r="17" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+    </row>
+    <row r="17" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1933,8 +1995,10 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
-    </row>
-    <row r="18" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+    </row>
+    <row r="18" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1978,8 +2042,10 @@
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
-    </row>
-    <row r="19" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+    </row>
+    <row r="19" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2023,8 +2089,10 @@
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
-    </row>
-    <row r="20" spans="1:43" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+    </row>
+    <row r="20" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2068,8 +2136,10 @@
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2113,8 +2183,10 @@
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2158,8 +2230,10 @@
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2203,8 +2277,10 @@
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2248,8 +2324,10 @@
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2293,8 +2371,10 @@
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2338,8 +2418,10 @@
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2383,8 +2465,10 @@
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2428,8 +2512,10 @@
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
       <c r="AQ28" s="9"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2473,8 +2559,10 @@
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2518,8 +2606,10 @@
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
       <c r="AQ30" s="9"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2563,8 +2653,10 @@
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
       <c r="AQ31" s="9"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2608,8 +2700,10 @@
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9"/>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2653,8 +2747,10 @@
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2698,8 +2794,10 @@
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
       <c r="AQ34" s="9"/>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2743,8 +2841,10 @@
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2788,8 +2888,10 @@
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
       <c r="AQ36" s="9"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2833,8 +2935,10 @@
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2878,8 +2982,10 @@
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
       <c r="AQ38" s="9"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2923,8 +3029,10 @@
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="9"/>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2968,8 +3076,10 @@
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="9"/>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3013,8 +3123,10 @@
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
       <c r="AQ41" s="9"/>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3058,8 +3170,10 @@
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
       <c r="AQ42" s="9"/>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3103,8 +3217,10 @@
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
       <c r="AQ43" s="9"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3148,8 +3264,10 @@
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
       <c r="AQ44" s="9"/>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3193,8 +3311,10 @@
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
       <c r="AQ45" s="9"/>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3238,8 +3358,10 @@
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
       <c r="AQ46" s="9"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3283,8 +3405,10 @@
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
       <c r="AQ47" s="9"/>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3328,8 +3452,10 @@
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
       <c r="AQ48" s="9"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3373,8 +3499,10 @@
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
       <c r="AQ49" s="9"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3418,8 +3546,10 @@
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
       <c r="AQ50" s="9"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3463,8 +3593,10 @@
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
       <c r="AQ51" s="9"/>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3508,8 +3640,10 @@
       <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
       <c r="AQ52" s="9"/>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3553,8 +3687,10 @@
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="9"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3598,8 +3734,10 @@
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
       <c r="AQ54" s="9"/>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3643,8 +3781,10 @@
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3688,8 +3828,10 @@
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
       <c r="AQ56" s="9"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -3733,8 +3875,10 @@
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -3778,8 +3922,10 @@
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR58" s="9"/>
+      <c r="AS58" s="9"/>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -3823,8 +3969,10 @@
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="9"/>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -3868,8 +4016,10 @@
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
       <c r="AQ60" s="9"/>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="9"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -3913,8 +4063,10 @@
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3958,8 +4110,10 @@
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
       <c r="AQ62" s="9"/>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4003,8 +4157,10 @@
       <c r="AO63" s="9"/>
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4048,8 +4204,10 @@
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
       <c r="AQ64" s="9"/>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4093,8 +4251,10 @@
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4138,8 +4298,10 @@
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
       <c r="AQ66" s="9"/>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4183,8 +4345,10 @@
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="9"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4228,8 +4392,10 @@
       <c r="AO68" s="9"/>
       <c r="AP68" s="9"/>
       <c r="AQ68" s="9"/>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="9"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4273,8 +4439,10 @@
       <c r="AO69" s="9"/>
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="9"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4318,8 +4486,10 @@
       <c r="AO70" s="9"/>
       <c r="AP70" s="9"/>
       <c r="AQ70" s="9"/>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4363,8 +4533,10 @@
       <c r="AO71" s="9"/>
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR71" s="9"/>
+      <c r="AS71" s="9"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4408,8 +4580,10 @@
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
       <c r="AQ72" s="9"/>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR72" s="9"/>
+      <c r="AS72" s="9"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4453,8 +4627,10 @@
       <c r="AO73" s="9"/>
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="9"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4498,8 +4674,10 @@
       <c r="AO74" s="9"/>
       <c r="AP74" s="9"/>
       <c r="AQ74" s="9"/>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR74" s="9"/>
+      <c r="AS74" s="9"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4543,8 +4721,10 @@
       <c r="AO75" s="9"/>
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="9"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4588,8 +4768,10 @@
       <c r="AO76" s="9"/>
       <c r="AP76" s="9"/>
       <c r="AQ76" s="9"/>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="9"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4633,8 +4815,10 @@
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4678,8 +4862,10 @@
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
       <c r="AQ78" s="9"/>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="9"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4723,8 +4909,10 @@
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
-    </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4768,8 +4956,10 @@
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
       <c r="AQ80" s="9"/>
-    </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4813,8 +5003,10 @@
       <c r="AO81" s="9"/>
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
-    </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4858,8 +5050,10 @@
       <c r="AO82" s="9"/>
       <c r="AP82" s="9"/>
       <c r="AQ82" s="9"/>
-    </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR82" s="9"/>
+      <c r="AS82" s="9"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4903,8 +5097,10 @@
       <c r="AO83" s="9"/>
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
-    </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR83" s="9"/>
+      <c r="AS83" s="9"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4948,8 +5144,10 @@
       <c r="AO84" s="9"/>
       <c r="AP84" s="9"/>
       <c r="AQ84" s="9"/>
-    </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR84" s="9"/>
+      <c r="AS84" s="9"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4993,8 +5191,10 @@
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
-    </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="9"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -5038,8 +5238,10 @@
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9"/>
-    </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR86" s="9"/>
+      <c r="AS86" s="9"/>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -5083,8 +5285,10 @@
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9"/>
-    </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR87" s="9"/>
+      <c r="AS87" s="9"/>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -5128,8 +5332,10 @@
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9"/>
-    </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR88" s="9"/>
+      <c r="AS88" s="9"/>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5173,8 +5379,10 @@
       <c r="AO89" s="9"/>
       <c r="AP89" s="9"/>
       <c r="AQ89" s="9"/>
-    </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR89" s="9"/>
+      <c r="AS89" s="9"/>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -5218,8 +5426,10 @@
       <c r="AO90" s="9"/>
       <c r="AP90" s="9"/>
       <c r="AQ90" s="9"/>
-    </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR90" s="9"/>
+      <c r="AS90" s="9"/>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5263,8 +5473,10 @@
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9"/>
-    </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR91" s="9"/>
+      <c r="AS91" s="9"/>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5308,8 +5520,10 @@
       <c r="AO92" s="9"/>
       <c r="AP92" s="9"/>
       <c r="AQ92" s="9"/>
-    </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR92" s="9"/>
+      <c r="AS92" s="9"/>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5353,8 +5567,10 @@
       <c r="AO93" s="9"/>
       <c r="AP93" s="9"/>
       <c r="AQ93" s="9"/>
-    </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR93" s="9"/>
+      <c r="AS93" s="9"/>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5398,8 +5614,10 @@
       <c r="AO94" s="9"/>
       <c r="AP94" s="9"/>
       <c r="AQ94" s="9"/>
-    </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR94" s="9"/>
+      <c r="AS94" s="9"/>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5443,8 +5661,10 @@
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9"/>
-    </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR95" s="9"/>
+      <c r="AS95" s="9"/>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5488,8 +5708,10 @@
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9"/>
-    </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR96" s="9"/>
+      <c r="AS96" s="9"/>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5533,8 +5755,10 @@
       <c r="AO97" s="9"/>
       <c r="AP97" s="9"/>
       <c r="AQ97" s="9"/>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR97" s="9"/>
+      <c r="AS97" s="9"/>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5578,8 +5802,10 @@
       <c r="AO98" s="9"/>
       <c r="AP98" s="9"/>
       <c r="AQ98" s="9"/>
-    </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR98" s="9"/>
+      <c r="AS98" s="9"/>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5623,8 +5849,10 @@
       <c r="AO99" s="9"/>
       <c r="AP99" s="9"/>
       <c r="AQ99" s="9"/>
-    </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR99" s="9"/>
+      <c r="AS99" s="9"/>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5668,8 +5896,10 @@
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
       <c r="AQ100" s="9"/>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR100" s="9"/>
+      <c r="AS100" s="9"/>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5713,8 +5943,10 @@
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
       <c r="AQ101" s="9"/>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR101" s="9"/>
+      <c r="AS101" s="9"/>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5758,8 +5990,10 @@
       <c r="AO102" s="9"/>
       <c r="AP102" s="9"/>
       <c r="AQ102" s="9"/>
-    </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR102" s="9"/>
+      <c r="AS102" s="9"/>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5803,8 +6037,10 @@
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
       <c r="AQ103" s="9"/>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR103" s="9"/>
+      <c r="AS103" s="9"/>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -5848,8 +6084,10 @@
       <c r="AO104" s="9"/>
       <c r="AP104" s="9"/>
       <c r="AQ104" s="9"/>
-    </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR104" s="9"/>
+      <c r="AS104" s="9"/>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -5893,8 +6131,10 @@
       <c r="AO105" s="9"/>
       <c r="AP105" s="9"/>
       <c r="AQ105" s="9"/>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR105" s="9"/>
+      <c r="AS105" s="9"/>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -5938,8 +6178,10 @@
       <c r="AO106" s="9"/>
       <c r="AP106" s="9"/>
       <c r="AQ106" s="9"/>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR106" s="9"/>
+      <c r="AS106" s="9"/>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -5983,8 +6225,10 @@
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
       <c r="AQ107" s="9"/>
-    </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR107" s="9"/>
+      <c r="AS107" s="9"/>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6028,8 +6272,10 @@
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
       <c r="AQ108" s="9"/>
-    </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR108" s="9"/>
+      <c r="AS108" s="9"/>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6073,8 +6319,10 @@
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9"/>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR109" s="9"/>
+      <c r="AS109" s="9"/>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6118,8 +6366,10 @@
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
       <c r="AQ110" s="9"/>
-    </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR110" s="9"/>
+      <c r="AS110" s="9"/>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6163,8 +6413,10 @@
       <c r="AO111" s="9"/>
       <c r="AP111" s="9"/>
       <c r="AQ111" s="9"/>
-    </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR111" s="9"/>
+      <c r="AS111" s="9"/>
+    </row>
+    <row r="112" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6208,8 +6460,10 @@
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
       <c r="AQ112" s="9"/>
-    </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR112" s="9"/>
+      <c r="AS112" s="9"/>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6253,8 +6507,10 @@
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
       <c r="AQ113" s="9"/>
-    </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR113" s="9"/>
+      <c r="AS113" s="9"/>
+    </row>
+    <row r="114" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6298,8 +6554,10 @@
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
       <c r="AQ114" s="9"/>
-    </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR114" s="9"/>
+      <c r="AS114" s="9"/>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6343,8 +6601,10 @@
       <c r="AO115" s="9"/>
       <c r="AP115" s="9"/>
       <c r="AQ115" s="9"/>
-    </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR115" s="9"/>
+      <c r="AS115" s="9"/>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6388,8 +6648,10 @@
       <c r="AO116" s="9"/>
       <c r="AP116" s="9"/>
       <c r="AQ116" s="9"/>
-    </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR116" s="9"/>
+      <c r="AS116" s="9"/>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6433,8 +6695,10 @@
       <c r="AO117" s="9"/>
       <c r="AP117" s="9"/>
       <c r="AQ117" s="9"/>
-    </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR117" s="9"/>
+      <c r="AS117" s="9"/>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6478,8 +6742,10 @@
       <c r="AO118" s="9"/>
       <c r="AP118" s="9"/>
       <c r="AQ118" s="9"/>
-    </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR118" s="9"/>
+      <c r="AS118" s="9"/>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6523,8 +6789,10 @@
       <c r="AO119" s="9"/>
       <c r="AP119" s="9"/>
       <c r="AQ119" s="9"/>
-    </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR119" s="9"/>
+      <c r="AS119" s="9"/>
+    </row>
+    <row r="120" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6568,8 +6836,10 @@
       <c r="AO120" s="9"/>
       <c r="AP120" s="9"/>
       <c r="AQ120" s="9"/>
-    </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR120" s="9"/>
+      <c r="AS120" s="9"/>
+    </row>
+    <row r="121" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6613,8 +6883,10 @@
       <c r="AO121" s="9"/>
       <c r="AP121" s="9"/>
       <c r="AQ121" s="9"/>
-    </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR121" s="9"/>
+      <c r="AS121" s="9"/>
+    </row>
+    <row r="122" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6658,8 +6930,10 @@
       <c r="AO122" s="9"/>
       <c r="AP122" s="9"/>
       <c r="AQ122" s="9"/>
-    </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR122" s="9"/>
+      <c r="AS122" s="9"/>
+    </row>
+    <row r="123" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6703,8 +6977,10 @@
       <c r="AO123" s="9"/>
       <c r="AP123" s="9"/>
       <c r="AQ123" s="9"/>
-    </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR123" s="9"/>
+      <c r="AS123" s="9"/>
+    </row>
+    <row r="124" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6748,8 +7024,10 @@
       <c r="AO124" s="9"/>
       <c r="AP124" s="9"/>
       <c r="AQ124" s="9"/>
-    </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR124" s="9"/>
+      <c r="AS124" s="9"/>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6793,8 +7071,10 @@
       <c r="AO125" s="9"/>
       <c r="AP125" s="9"/>
       <c r="AQ125" s="9"/>
-    </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR125" s="9"/>
+      <c r="AS125" s="9"/>
+    </row>
+    <row r="126" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6838,8 +7118,10 @@
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
       <c r="AQ126" s="9"/>
-    </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR126" s="9"/>
+      <c r="AS126" s="9"/>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -6883,8 +7165,10 @@
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
       <c r="AQ127" s="9"/>
-    </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR127" s="9"/>
+      <c r="AS127" s="9"/>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -6928,8 +7212,10 @@
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
       <c r="AQ128" s="9"/>
-    </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR128" s="9"/>
+      <c r="AS128" s="9"/>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -6973,8 +7259,10 @@
       <c r="AO129" s="9"/>
       <c r="AP129" s="9"/>
       <c r="AQ129" s="9"/>
-    </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR129" s="9"/>
+      <c r="AS129" s="9"/>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7018,8 +7306,10 @@
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
       <c r="AQ130" s="9"/>
-    </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR130" s="9"/>
+      <c r="AS130" s="9"/>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7063,8 +7353,10 @@
       <c r="AO131" s="9"/>
       <c r="AP131" s="9"/>
       <c r="AQ131" s="9"/>
-    </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR131" s="9"/>
+      <c r="AS131" s="9"/>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7108,8 +7400,10 @@
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
       <c r="AQ132" s="9"/>
-    </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR132" s="9"/>
+      <c r="AS132" s="9"/>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7153,8 +7447,10 @@
       <c r="AO133" s="9"/>
       <c r="AP133" s="9"/>
       <c r="AQ133" s="9"/>
-    </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR133" s="9"/>
+      <c r="AS133" s="9"/>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7198,8 +7494,10 @@
       <c r="AO134" s="9"/>
       <c r="AP134" s="9"/>
       <c r="AQ134" s="9"/>
-    </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR134" s="9"/>
+      <c r="AS134" s="9"/>
+    </row>
+    <row r="135" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7243,8 +7541,10 @@
       <c r="AO135" s="9"/>
       <c r="AP135" s="9"/>
       <c r="AQ135" s="9"/>
-    </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR135" s="9"/>
+      <c r="AS135" s="9"/>
+    </row>
+    <row r="136" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7288,8 +7588,10 @@
       <c r="AO136" s="9"/>
       <c r="AP136" s="9"/>
       <c r="AQ136" s="9"/>
-    </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR136" s="9"/>
+      <c r="AS136" s="9"/>
+    </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7333,8 +7635,10 @@
       <c r="AO137" s="9"/>
       <c r="AP137" s="9"/>
       <c r="AQ137" s="9"/>
-    </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR137" s="9"/>
+      <c r="AS137" s="9"/>
+    </row>
+    <row r="138" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7378,8 +7682,10 @@
       <c r="AO138" s="9"/>
       <c r="AP138" s="9"/>
       <c r="AQ138" s="9"/>
-    </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR138" s="9"/>
+      <c r="AS138" s="9"/>
+    </row>
+    <row r="139" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7423,8 +7729,10 @@
       <c r="AO139" s="9"/>
       <c r="AP139" s="9"/>
       <c r="AQ139" s="9"/>
-    </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR139" s="9"/>
+      <c r="AS139" s="9"/>
+    </row>
+    <row r="140" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7468,8 +7776,10 @@
       <c r="AO140" s="9"/>
       <c r="AP140" s="9"/>
       <c r="AQ140" s="9"/>
-    </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR140" s="9"/>
+      <c r="AS140" s="9"/>
+    </row>
+    <row r="141" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -7513,8 +7823,10 @@
       <c r="AO141" s="9"/>
       <c r="AP141" s="9"/>
       <c r="AQ141" s="9"/>
-    </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR141" s="9"/>
+      <c r="AS141" s="9"/>
+    </row>
+    <row r="142" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7558,8 +7870,10 @@
       <c r="AO142" s="9"/>
       <c r="AP142" s="9"/>
       <c r="AQ142" s="9"/>
-    </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR142" s="9"/>
+      <c r="AS142" s="9"/>
+    </row>
+    <row r="143" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7603,8 +7917,10 @@
       <c r="AO143" s="9"/>
       <c r="AP143" s="9"/>
       <c r="AQ143" s="9"/>
-    </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR143" s="9"/>
+      <c r="AS143" s="9"/>
+    </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -7648,8 +7964,10 @@
       <c r="AO144" s="9"/>
       <c r="AP144" s="9"/>
       <c r="AQ144" s="9"/>
-    </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR144" s="9"/>
+      <c r="AS144" s="9"/>
+    </row>
+    <row r="145" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7693,8 +8011,10 @@
       <c r="AO145" s="9"/>
       <c r="AP145" s="9"/>
       <c r="AQ145" s="9"/>
-    </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR145" s="9"/>
+      <c r="AS145" s="9"/>
+    </row>
+    <row r="146" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -7738,8 +8058,10 @@
       <c r="AO146" s="9"/>
       <c r="AP146" s="9"/>
       <c r="AQ146" s="9"/>
-    </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR146" s="9"/>
+      <c r="AS146" s="9"/>
+    </row>
+    <row r="147" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7783,8 +8105,10 @@
       <c r="AO147" s="9"/>
       <c r="AP147" s="9"/>
       <c r="AQ147" s="9"/>
-    </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR147" s="9"/>
+      <c r="AS147" s="9"/>
+    </row>
+    <row r="148" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7828,8 +8152,10 @@
       <c r="AO148" s="9"/>
       <c r="AP148" s="9"/>
       <c r="AQ148" s="9"/>
-    </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR148" s="9"/>
+      <c r="AS148" s="9"/>
+    </row>
+    <row r="149" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7873,8 +8199,10 @@
       <c r="AO149" s="9"/>
       <c r="AP149" s="9"/>
       <c r="AQ149" s="9"/>
-    </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR149" s="9"/>
+      <c r="AS149" s="9"/>
+    </row>
+    <row r="150" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -7918,8 +8246,10 @@
       <c r="AO150" s="9"/>
       <c r="AP150" s="9"/>
       <c r="AQ150" s="9"/>
-    </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR150" s="9"/>
+      <c r="AS150" s="9"/>
+    </row>
+    <row r="151" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -7963,8 +8293,10 @@
       <c r="AO151" s="9"/>
       <c r="AP151" s="9"/>
       <c r="AQ151" s="9"/>
-    </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR151" s="9"/>
+      <c r="AS151" s="9"/>
+    </row>
+    <row r="152" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -8008,8 +8340,10 @@
       <c r="AO152" s="9"/>
       <c r="AP152" s="9"/>
       <c r="AQ152" s="9"/>
-    </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR152" s="9"/>
+      <c r="AS152" s="9"/>
+    </row>
+    <row r="153" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -8053,8 +8387,10 @@
       <c r="AO153" s="9"/>
       <c r="AP153" s="9"/>
       <c r="AQ153" s="9"/>
-    </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR153" s="9"/>
+      <c r="AS153" s="9"/>
+    </row>
+    <row r="154" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -8098,8 +8434,10 @@
       <c r="AO154" s="9"/>
       <c r="AP154" s="9"/>
       <c r="AQ154" s="9"/>
-    </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR154" s="9"/>
+      <c r="AS154" s="9"/>
+    </row>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -8143,8 +8481,10 @@
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
       <c r="AQ155" s="9"/>
-    </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR155" s="9"/>
+      <c r="AS155" s="9"/>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -8188,8 +8528,10 @@
       <c r="AO156" s="9"/>
       <c r="AP156" s="9"/>
       <c r="AQ156" s="9"/>
-    </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR156" s="9"/>
+      <c r="AS156" s="9"/>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -8233,8 +8575,10 @@
       <c r="AO157" s="9"/>
       <c r="AP157" s="9"/>
       <c r="AQ157" s="9"/>
-    </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR157" s="9"/>
+      <c r="AS157" s="9"/>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8278,8 +8622,10 @@
       <c r="AO158" s="9"/>
       <c r="AP158" s="9"/>
       <c r="AQ158" s="9"/>
-    </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR158" s="9"/>
+      <c r="AS158" s="9"/>
+    </row>
+    <row r="159" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8323,8 +8669,10 @@
       <c r="AO159" s="9"/>
       <c r="AP159" s="9"/>
       <c r="AQ159" s="9"/>
-    </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR159" s="9"/>
+      <c r="AS159" s="9"/>
+    </row>
+    <row r="160" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8368,8 +8716,10 @@
       <c r="AO160" s="9"/>
       <c r="AP160" s="9"/>
       <c r="AQ160" s="9"/>
-    </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="AR160" s="9"/>
+      <c r="AS160" s="9"/>
+    </row>
+    <row r="161" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -8413,18 +8763,20 @@
       <c r="AO161" s="9"/>
       <c r="AP161" s="9"/>
       <c r="AQ161" s="9"/>
+      <c r="AR161" s="9"/>
+      <c r="AS161" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:AA1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B11:D11 B2:D2 B4:D7 B19:D1048576 E5:O5">
+  <conditionalFormatting sqref="B11:D11 B2:D2 B4:D7 B19:D1048576 E5:P5">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/角色数据表.xlsx
+++ b/Assets/Data/excel/角色数据表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,14 +65,6 @@
   </si>
   <si>
     <t>角色名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流氓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,6 +231,54 @@
   </si>
   <si>
     <t>{"昆仑剑法_D":2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"猴拳_D":2000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"杨家刀法_D":2000}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +546,28 @@
     <cellStyle name="常规 4" xfId="6"/>
     <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -982,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS161"/>
+  <dimension ref="A1:AU161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -997,27 +1058,28 @@
     <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
     <col min="5" max="10" width="4.625" style="12" customWidth="1"/>
     <col min="11" max="13" width="3.875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="3.875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="28.25" style="12" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="12" customWidth="1"/>
-    <col min="20" max="20" width="20.125" style="12" customWidth="1"/>
-    <col min="21" max="22" width="18.75" style="12" customWidth="1"/>
-    <col min="23" max="27" width="4.75" style="12" customWidth="1"/>
-    <col min="28" max="28" width="26.875" style="12" customWidth="1"/>
-    <col min="29" max="33" width="6.125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="10.25" style="12" customWidth="1"/>
-    <col min="35" max="45" width="7.25" style="12" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="10"/>
+    <col min="14" max="17" width="3.875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="28.25" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="12" customWidth="1"/>
+    <col min="21" max="21" width="11.875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="20.125" style="12" customWidth="1"/>
+    <col min="23" max="25" width="18.75" style="12" customWidth="1"/>
+    <col min="26" max="29" width="4.75" style="12" customWidth="1"/>
+    <col min="30" max="30" width="26.875" style="12" customWidth="1"/>
+    <col min="31" max="35" width="6.125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="10.25" style="12" customWidth="1"/>
+    <col min="37" max="47" width="7.25" style="12" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -1025,33 +1087,35 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="25"/>
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
       <c r="Y1" s="26"/>
       <c r="Z1" s="26"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="3"/>
       <c r="AE1" s="17"/>
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="4"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
@@ -1061,8 +1125,10 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
-    </row>
-    <row r="2" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+    </row>
+    <row r="2" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,69 +1136,73 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="P2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="25"/>
       <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -1142,8 +1212,10 @@
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
-    </row>
-    <row r="3" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+    </row>
+    <row r="3" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1176,14 +1248,14 @@
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14"/>
@@ -1193,8 +1265,10 @@
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14"/>
       <c r="AS3" s="14"/>
-    </row>
-    <row r="4" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+    </row>
+    <row r="4" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1202,79 +1276,85 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
+      <c r="X4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
       <c r="AM4" s="14"/>
@@ -1284,8 +1364,10 @@
       <c r="AQ4" s="14"/>
       <c r="AR4" s="14"/>
       <c r="AS4" s="14"/>
-    </row>
-    <row r="5" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+    </row>
+    <row r="5" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>1</v>
@@ -1308,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1</v>
@@ -1332,13 +1414,17 @@
         <v>1</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -1365,8 +1451,10 @@
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
-    </row>
-    <row r="6" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1414,8 +1502,10 @@
       <c r="AQ6" s="14"/>
       <c r="AR6" s="14"/>
       <c r="AS6" s="14"/>
-    </row>
-    <row r="7" spans="1:45" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+    </row>
+    <row r="7" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1461,8 +1551,10 @@
       <c r="AQ7" s="14"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
-    </row>
-    <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+    </row>
+    <row r="8" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1481,8 +1573,8 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
@@ -1501,8 +1593,8 @@
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
@@ -1510,11 +1602,13 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
-    </row>
-    <row r="9" spans="1:45" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+    </row>
+    <row r="9" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18">
         <v>600</v>
@@ -1522,52 +1616,44 @@
       <c r="D9" s="18">
         <v>500</v>
       </c>
-      <c r="E9" s="18">
-        <v>10</v>
-      </c>
-      <c r="F9" s="18">
-        <v>10</v>
-      </c>
-      <c r="G9" s="18">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18">
-        <v>10</v>
-      </c>
-      <c r="I9" s="18">
-        <v>10</v>
-      </c>
-      <c r="J9" s="18">
-        <v>10</v>
-      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O9" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P9" s="18">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>80</v>
+      </c>
+      <c r="R9" s="18">
+        <v>40</v>
+      </c>
       <c r="S9" s="19"/>
-      <c r="T9" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="X9" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
@@ -1589,11 +1675,13 @@
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
       <c r="AS9" s="19"/>
-    </row>
-    <row r="10" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+    </row>
+    <row r="10" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18">
         <v>600</v>
@@ -1601,53 +1689,45 @@
       <c r="D10" s="18">
         <v>500</v>
       </c>
-      <c r="E10" s="18">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18">
-        <v>10</v>
-      </c>
-      <c r="G10" s="18">
-        <v>10</v>
-      </c>
-      <c r="H10" s="18">
-        <v>10</v>
-      </c>
-      <c r="I10" s="18">
-        <v>10</v>
-      </c>
-      <c r="J10" s="18">
-        <v>10</v>
-      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L10" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M10" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O10" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P10" s="18">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>80</v>
+      </c>
+      <c r="R10" s="18">
+        <v>40</v>
+      </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
+      <c r="Y10" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
@@ -1668,30 +1748,56 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
-    </row>
-    <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+    </row>
+    <row r="11" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18">
+        <v>600</v>
+      </c>
+      <c r="D11" s="18">
+        <v>500</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18">
+        <v>80</v>
+      </c>
+      <c r="L11" s="18">
+        <v>80</v>
+      </c>
+      <c r="M11" s="18">
+        <v>80</v>
+      </c>
+      <c r="N11" s="18">
+        <v>80</v>
+      </c>
+      <c r="O11" s="18">
+        <v>80</v>
+      </c>
+      <c r="P11" s="18">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>80</v>
+      </c>
+      <c r="R11" s="18">
+        <v>40</v>
+      </c>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="V11" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -1715,30 +1821,56 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
       <c r="AS11" s="19"/>
-    </row>
-    <row r="12" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+    </row>
+    <row r="12" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18">
+        <v>600</v>
+      </c>
+      <c r="D12" s="18">
+        <v>500</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
+        <v>80</v>
+      </c>
+      <c r="L12" s="18">
+        <v>80</v>
+      </c>
+      <c r="M12" s="18">
+        <v>80</v>
+      </c>
+      <c r="N12" s="18">
+        <v>80</v>
+      </c>
+      <c r="O12" s="18">
+        <v>80</v>
+      </c>
+      <c r="P12" s="18">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>80</v>
+      </c>
+      <c r="R12" s="18">
+        <v>40</v>
+      </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="V12" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -1762,8 +1894,10 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
-    </row>
-    <row r="13" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+    </row>
+    <row r="13" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1809,8 +1943,10 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
       <c r="AS13" s="19"/>
-    </row>
-    <row r="14" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+    </row>
+    <row r="14" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1856,8 +1992,10 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
-    </row>
-    <row r="15" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+    </row>
+    <row r="15" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1903,8 +2041,10 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
-    </row>
-    <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+    </row>
+    <row r="16" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1950,8 +2090,10 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
-    </row>
-    <row r="17" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+    </row>
+    <row r="17" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1997,8 +2139,10 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
-    </row>
-    <row r="18" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+    </row>
+    <row r="18" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2044,8 +2188,10 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
-    </row>
-    <row r="19" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+    </row>
+    <row r="19" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2091,8 +2237,10 @@
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
-    </row>
-    <row r="20" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+    </row>
+    <row r="20" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2138,8 +2286,10 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2185,8 +2335,10 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2232,8 +2384,10 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2279,8 +2433,10 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2326,8 +2482,10 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2373,8 +2531,10 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2420,8 +2580,10 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2467,8 +2629,10 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="9"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2514,8 +2678,10 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
       <c r="AS28" s="9"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2561,8 +2727,10 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
       <c r="AS29" s="9"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2608,8 +2776,10 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
       <c r="AS30" s="9"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2655,8 +2825,10 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="9"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2702,8 +2874,10 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
       <c r="AS32" s="9"/>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2749,8 +2923,10 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2796,8 +2972,10 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="9"/>
       <c r="AS34" s="9"/>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2843,8 +3021,10 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
       <c r="AS35" s="9"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2890,8 +3070,10 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
       <c r="AS36" s="9"/>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2937,8 +3119,10 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
       <c r="AS37" s="9"/>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2984,8 +3168,10 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
       <c r="AS38" s="9"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3031,8 +3217,10 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
       <c r="AS39" s="9"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3078,8 +3266,10 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
       <c r="AS40" s="9"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3125,8 +3315,10 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
       <c r="AS41" s="9"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3172,8 +3364,10 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
       <c r="AS42" s="9"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3219,8 +3413,10 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
       <c r="AS43" s="9"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3266,8 +3462,10 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="9"/>
       <c r="AS44" s="9"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3313,8 +3511,10 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="9"/>
       <c r="AS45" s="9"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="9"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3360,8 +3560,10 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="9"/>
       <c r="AS46" s="9"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3407,8 +3609,10 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="9"/>
       <c r="AS47" s="9"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3454,8 +3658,10 @@
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9"/>
       <c r="AS48" s="9"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3501,8 +3707,10 @@
       <c r="AQ49" s="9"/>
       <c r="AR49" s="9"/>
       <c r="AS49" s="9"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3548,8 +3756,10 @@
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
       <c r="AS50" s="9"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3595,8 +3805,10 @@
       <c r="AQ51" s="9"/>
       <c r="AR51" s="9"/>
       <c r="AS51" s="9"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3642,8 +3854,10 @@
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
       <c r="AS52" s="9"/>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3689,8 +3903,10 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
       <c r="AS53" s="9"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3736,8 +3952,10 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="9"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3783,8 +4001,10 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9"/>
       <c r="AS55" s="9"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3830,8 +4050,10 @@
       <c r="AQ56" s="9"/>
       <c r="AR56" s="9"/>
       <c r="AS56" s="9"/>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -3877,8 +4099,10 @@
       <c r="AQ57" s="9"/>
       <c r="AR57" s="9"/>
       <c r="AS57" s="9"/>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -3924,8 +4148,10 @@
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
       <c r="AS58" s="9"/>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -3971,8 +4197,10 @@
       <c r="AQ59" s="9"/>
       <c r="AR59" s="9"/>
       <c r="AS59" s="9"/>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="9"/>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4018,8 +4246,10 @@
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
       <c r="AS60" s="9"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="9"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4065,8 +4295,10 @@
       <c r="AQ61" s="9"/>
       <c r="AR61" s="9"/>
       <c r="AS61" s="9"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4112,8 +4344,10 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="9"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4159,8 +4393,10 @@
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9"/>
       <c r="AS63" s="9"/>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4206,8 +4442,10 @@
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
       <c r="AS64" s="9"/>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4253,8 +4491,10 @@
       <c r="AQ65" s="9"/>
       <c r="AR65" s="9"/>
       <c r="AS65" s="9"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4300,8 +4540,10 @@
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
       <c r="AS66" s="9"/>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4347,8 +4589,10 @@
       <c r="AQ67" s="9"/>
       <c r="AR67" s="9"/>
       <c r="AS67" s="9"/>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="9"/>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4394,8 +4638,10 @@
       <c r="AQ68" s="9"/>
       <c r="AR68" s="9"/>
       <c r="AS68" s="9"/>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="9"/>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4441,8 +4687,10 @@
       <c r="AQ69" s="9"/>
       <c r="AR69" s="9"/>
       <c r="AS69" s="9"/>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="9"/>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4488,8 +4736,10 @@
       <c r="AQ70" s="9"/>
       <c r="AR70" s="9"/>
       <c r="AS70" s="9"/>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4535,8 +4785,10 @@
       <c r="AQ71" s="9"/>
       <c r="AR71" s="9"/>
       <c r="AS71" s="9"/>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="9"/>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4582,8 +4834,10 @@
       <c r="AQ72" s="9"/>
       <c r="AR72" s="9"/>
       <c r="AS72" s="9"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="9"/>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4629,8 +4883,10 @@
       <c r="AQ73" s="9"/>
       <c r="AR73" s="9"/>
       <c r="AS73" s="9"/>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="9"/>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4676,8 +4932,10 @@
       <c r="AQ74" s="9"/>
       <c r="AR74" s="9"/>
       <c r="AS74" s="9"/>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT74" s="9"/>
+      <c r="AU74" s="9"/>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4723,8 +4981,10 @@
       <c r="AQ75" s="9"/>
       <c r="AR75" s="9"/>
       <c r="AS75" s="9"/>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT75" s="9"/>
+      <c r="AU75" s="9"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4770,8 +5030,10 @@
       <c r="AQ76" s="9"/>
       <c r="AR76" s="9"/>
       <c r="AS76" s="9"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="9"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4817,8 +5079,10 @@
       <c r="AQ77" s="9"/>
       <c r="AR77" s="9"/>
       <c r="AS77" s="9"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4864,8 +5128,10 @@
       <c r="AQ78" s="9"/>
       <c r="AR78" s="9"/>
       <c r="AS78" s="9"/>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="9"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4911,8 +5177,10 @@
       <c r="AQ79" s="9"/>
       <c r="AR79" s="9"/>
       <c r="AS79" s="9"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="9"/>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4958,8 +5226,10 @@
       <c r="AQ80" s="9"/>
       <c r="AR80" s="9"/>
       <c r="AS80" s="9"/>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="9"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5005,8 +5275,10 @@
       <c r="AQ81" s="9"/>
       <c r="AR81" s="9"/>
       <c r="AS81" s="9"/>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5052,8 +5324,10 @@
       <c r="AQ82" s="9"/>
       <c r="AR82" s="9"/>
       <c r="AS82" s="9"/>
-    </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT82" s="9"/>
+      <c r="AU82" s="9"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5099,8 +5373,10 @@
       <c r="AQ83" s="9"/>
       <c r="AR83" s="9"/>
       <c r="AS83" s="9"/>
-    </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT83" s="9"/>
+      <c r="AU83" s="9"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -5146,8 +5422,10 @@
       <c r="AQ84" s="9"/>
       <c r="AR84" s="9"/>
       <c r="AS84" s="9"/>
-    </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -5193,8 +5471,10 @@
       <c r="AQ85" s="9"/>
       <c r="AR85" s="9"/>
       <c r="AS85" s="9"/>
-    </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT85" s="9"/>
+      <c r="AU85" s="9"/>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -5240,8 +5520,10 @@
       <c r="AQ86" s="9"/>
       <c r="AR86" s="9"/>
       <c r="AS86" s="9"/>
-    </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT86" s="9"/>
+      <c r="AU86" s="9"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -5287,8 +5569,10 @@
       <c r="AQ87" s="9"/>
       <c r="AR87" s="9"/>
       <c r="AS87" s="9"/>
-    </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT87" s="9"/>
+      <c r="AU87" s="9"/>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -5334,8 +5618,10 @@
       <c r="AQ88" s="9"/>
       <c r="AR88" s="9"/>
       <c r="AS88" s="9"/>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT88" s="9"/>
+      <c r="AU88" s="9"/>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5381,8 +5667,10 @@
       <c r="AQ89" s="9"/>
       <c r="AR89" s="9"/>
       <c r="AS89" s="9"/>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT89" s="9"/>
+      <c r="AU89" s="9"/>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -5428,8 +5716,10 @@
       <c r="AQ90" s="9"/>
       <c r="AR90" s="9"/>
       <c r="AS90" s="9"/>
-    </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT90" s="9"/>
+      <c r="AU90" s="9"/>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5475,8 +5765,10 @@
       <c r="AQ91" s="9"/>
       <c r="AR91" s="9"/>
       <c r="AS91" s="9"/>
-    </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="9"/>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5522,8 +5814,10 @@
       <c r="AQ92" s="9"/>
       <c r="AR92" s="9"/>
       <c r="AS92" s="9"/>
-    </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT92" s="9"/>
+      <c r="AU92" s="9"/>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5569,8 +5863,10 @@
       <c r="AQ93" s="9"/>
       <c r="AR93" s="9"/>
       <c r="AS93" s="9"/>
-    </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="9"/>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5616,8 +5912,10 @@
       <c r="AQ94" s="9"/>
       <c r="AR94" s="9"/>
       <c r="AS94" s="9"/>
-    </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT94" s="9"/>
+      <c r="AU94" s="9"/>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5663,8 +5961,10 @@
       <c r="AQ95" s="9"/>
       <c r="AR95" s="9"/>
       <c r="AS95" s="9"/>
-    </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT95" s="9"/>
+      <c r="AU95" s="9"/>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5710,8 +6010,10 @@
       <c r="AQ96" s="9"/>
       <c r="AR96" s="9"/>
       <c r="AS96" s="9"/>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT96" s="9"/>
+      <c r="AU96" s="9"/>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5757,8 +6059,10 @@
       <c r="AQ97" s="9"/>
       <c r="AR97" s="9"/>
       <c r="AS97" s="9"/>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT97" s="9"/>
+      <c r="AU97" s="9"/>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5804,8 +6108,10 @@
       <c r="AQ98" s="9"/>
       <c r="AR98" s="9"/>
       <c r="AS98" s="9"/>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5851,8 +6157,10 @@
       <c r="AQ99" s="9"/>
       <c r="AR99" s="9"/>
       <c r="AS99" s="9"/>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT99" s="9"/>
+      <c r="AU99" s="9"/>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5898,8 +6206,10 @@
       <c r="AQ100" s="9"/>
       <c r="AR100" s="9"/>
       <c r="AS100" s="9"/>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="9"/>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5945,8 +6255,10 @@
       <c r="AQ101" s="9"/>
       <c r="AR101" s="9"/>
       <c r="AS101" s="9"/>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5992,8 +6304,10 @@
       <c r="AQ102" s="9"/>
       <c r="AR102" s="9"/>
       <c r="AS102" s="9"/>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6039,8 +6353,10 @@
       <c r="AQ103" s="9"/>
       <c r="AR103" s="9"/>
       <c r="AS103" s="9"/>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT103" s="9"/>
+      <c r="AU103" s="9"/>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6086,8 +6402,10 @@
       <c r="AQ104" s="9"/>
       <c r="AR104" s="9"/>
       <c r="AS104" s="9"/>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT104" s="9"/>
+      <c r="AU104" s="9"/>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6133,8 +6451,10 @@
       <c r="AQ105" s="9"/>
       <c r="AR105" s="9"/>
       <c r="AS105" s="9"/>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT105" s="9"/>
+      <c r="AU105" s="9"/>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6180,8 +6500,10 @@
       <c r="AQ106" s="9"/>
       <c r="AR106" s="9"/>
       <c r="AS106" s="9"/>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT106" s="9"/>
+      <c r="AU106" s="9"/>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6227,8 +6549,10 @@
       <c r="AQ107" s="9"/>
       <c r="AR107" s="9"/>
       <c r="AS107" s="9"/>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="9"/>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6274,8 +6598,10 @@
       <c r="AQ108" s="9"/>
       <c r="AR108" s="9"/>
       <c r="AS108" s="9"/>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT108" s="9"/>
+      <c r="AU108" s="9"/>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6321,8 +6647,10 @@
       <c r="AQ109" s="9"/>
       <c r="AR109" s="9"/>
       <c r="AS109" s="9"/>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT109" s="9"/>
+      <c r="AU109" s="9"/>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6368,8 +6696,10 @@
       <c r="AQ110" s="9"/>
       <c r="AR110" s="9"/>
       <c r="AS110" s="9"/>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT110" s="9"/>
+      <c r="AU110" s="9"/>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6415,8 +6745,10 @@
       <c r="AQ111" s="9"/>
       <c r="AR111" s="9"/>
       <c r="AS111" s="9"/>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT111" s="9"/>
+      <c r="AU111" s="9"/>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6462,8 +6794,10 @@
       <c r="AQ112" s="9"/>
       <c r="AR112" s="9"/>
       <c r="AS112" s="9"/>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT112" s="9"/>
+      <c r="AU112" s="9"/>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6509,8 +6843,10 @@
       <c r="AQ113" s="9"/>
       <c r="AR113" s="9"/>
       <c r="AS113" s="9"/>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT113" s="9"/>
+      <c r="AU113" s="9"/>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6556,8 +6892,10 @@
       <c r="AQ114" s="9"/>
       <c r="AR114" s="9"/>
       <c r="AS114" s="9"/>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT114" s="9"/>
+      <c r="AU114" s="9"/>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6603,8 +6941,10 @@
       <c r="AQ115" s="9"/>
       <c r="AR115" s="9"/>
       <c r="AS115" s="9"/>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT115" s="9"/>
+      <c r="AU115" s="9"/>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6650,8 +6990,10 @@
       <c r="AQ116" s="9"/>
       <c r="AR116" s="9"/>
       <c r="AS116" s="9"/>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT116" s="9"/>
+      <c r="AU116" s="9"/>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6697,8 +7039,10 @@
       <c r="AQ117" s="9"/>
       <c r="AR117" s="9"/>
       <c r="AS117" s="9"/>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT117" s="9"/>
+      <c r="AU117" s="9"/>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6744,8 +7088,10 @@
       <c r="AQ118" s="9"/>
       <c r="AR118" s="9"/>
       <c r="AS118" s="9"/>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT118" s="9"/>
+      <c r="AU118" s="9"/>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6791,8 +7137,10 @@
       <c r="AQ119" s="9"/>
       <c r="AR119" s="9"/>
       <c r="AS119" s="9"/>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT119" s="9"/>
+      <c r="AU119" s="9"/>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6838,8 +7186,10 @@
       <c r="AQ120" s="9"/>
       <c r="AR120" s="9"/>
       <c r="AS120" s="9"/>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT120" s="9"/>
+      <c r="AU120" s="9"/>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6885,8 +7235,10 @@
       <c r="AQ121" s="9"/>
       <c r="AR121" s="9"/>
       <c r="AS121" s="9"/>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT121" s="9"/>
+      <c r="AU121" s="9"/>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6932,8 +7284,10 @@
       <c r="AQ122" s="9"/>
       <c r="AR122" s="9"/>
       <c r="AS122" s="9"/>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT122" s="9"/>
+      <c r="AU122" s="9"/>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6979,8 +7333,10 @@
       <c r="AQ123" s="9"/>
       <c r="AR123" s="9"/>
       <c r="AS123" s="9"/>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT123" s="9"/>
+      <c r="AU123" s="9"/>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -7026,8 +7382,10 @@
       <c r="AQ124" s="9"/>
       <c r="AR124" s="9"/>
       <c r="AS124" s="9"/>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT124" s="9"/>
+      <c r="AU124" s="9"/>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7073,8 +7431,10 @@
       <c r="AQ125" s="9"/>
       <c r="AR125" s="9"/>
       <c r="AS125" s="9"/>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT125" s="9"/>
+      <c r="AU125" s="9"/>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7120,8 +7480,10 @@
       <c r="AQ126" s="9"/>
       <c r="AR126" s="9"/>
       <c r="AS126" s="9"/>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT126" s="9"/>
+      <c r="AU126" s="9"/>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7167,8 +7529,10 @@
       <c r="AQ127" s="9"/>
       <c r="AR127" s="9"/>
       <c r="AS127" s="9"/>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT127" s="9"/>
+      <c r="AU127" s="9"/>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7214,8 +7578,10 @@
       <c r="AQ128" s="9"/>
       <c r="AR128" s="9"/>
       <c r="AS128" s="9"/>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT128" s="9"/>
+      <c r="AU128" s="9"/>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7261,8 +7627,10 @@
       <c r="AQ129" s="9"/>
       <c r="AR129" s="9"/>
       <c r="AS129" s="9"/>
-    </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT129" s="9"/>
+      <c r="AU129" s="9"/>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7308,8 +7676,10 @@
       <c r="AQ130" s="9"/>
       <c r="AR130" s="9"/>
       <c r="AS130" s="9"/>
-    </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT130" s="9"/>
+      <c r="AU130" s="9"/>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7355,8 +7725,10 @@
       <c r="AQ131" s="9"/>
       <c r="AR131" s="9"/>
       <c r="AS131" s="9"/>
-    </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT131" s="9"/>
+      <c r="AU131" s="9"/>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7402,8 +7774,10 @@
       <c r="AQ132" s="9"/>
       <c r="AR132" s="9"/>
       <c r="AS132" s="9"/>
-    </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT132" s="9"/>
+      <c r="AU132" s="9"/>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7449,8 +7823,10 @@
       <c r="AQ133" s="9"/>
       <c r="AR133" s="9"/>
       <c r="AS133" s="9"/>
-    </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT133" s="9"/>
+      <c r="AU133" s="9"/>
+    </row>
+    <row r="134" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7496,8 +7872,10 @@
       <c r="AQ134" s="9"/>
       <c r="AR134" s="9"/>
       <c r="AS134" s="9"/>
-    </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT134" s="9"/>
+      <c r="AU134" s="9"/>
+    </row>
+    <row r="135" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7543,8 +7921,10 @@
       <c r="AQ135" s="9"/>
       <c r="AR135" s="9"/>
       <c r="AS135" s="9"/>
-    </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT135" s="9"/>
+      <c r="AU135" s="9"/>
+    </row>
+    <row r="136" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7590,8 +7970,10 @@
       <c r="AQ136" s="9"/>
       <c r="AR136" s="9"/>
       <c r="AS136" s="9"/>
-    </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT136" s="9"/>
+      <c r="AU136" s="9"/>
+    </row>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7637,8 +8019,10 @@
       <c r="AQ137" s="9"/>
       <c r="AR137" s="9"/>
       <c r="AS137" s="9"/>
-    </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT137" s="9"/>
+      <c r="AU137" s="9"/>
+    </row>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7684,8 +8068,10 @@
       <c r="AQ138" s="9"/>
       <c r="AR138" s="9"/>
       <c r="AS138" s="9"/>
-    </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT138" s="9"/>
+      <c r="AU138" s="9"/>
+    </row>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7731,8 +8117,10 @@
       <c r="AQ139" s="9"/>
       <c r="AR139" s="9"/>
       <c r="AS139" s="9"/>
-    </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT139" s="9"/>
+      <c r="AU139" s="9"/>
+    </row>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7778,8 +8166,10 @@
       <c r="AQ140" s="9"/>
       <c r="AR140" s="9"/>
       <c r="AS140" s="9"/>
-    </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT140" s="9"/>
+      <c r="AU140" s="9"/>
+    </row>
+    <row r="141" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -7825,8 +8215,10 @@
       <c r="AQ141" s="9"/>
       <c r="AR141" s="9"/>
       <c r="AS141" s="9"/>
-    </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT141" s="9"/>
+      <c r="AU141" s="9"/>
+    </row>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7872,8 +8264,10 @@
       <c r="AQ142" s="9"/>
       <c r="AR142" s="9"/>
       <c r="AS142" s="9"/>
-    </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT142" s="9"/>
+      <c r="AU142" s="9"/>
+    </row>
+    <row r="143" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7919,8 +8313,10 @@
       <c r="AQ143" s="9"/>
       <c r="AR143" s="9"/>
       <c r="AS143" s="9"/>
-    </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT143" s="9"/>
+      <c r="AU143" s="9"/>
+    </row>
+    <row r="144" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -7966,8 +8362,10 @@
       <c r="AQ144" s="9"/>
       <c r="AR144" s="9"/>
       <c r="AS144" s="9"/>
-    </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT144" s="9"/>
+      <c r="AU144" s="9"/>
+    </row>
+    <row r="145" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -8013,8 +8411,10 @@
       <c r="AQ145" s="9"/>
       <c r="AR145" s="9"/>
       <c r="AS145" s="9"/>
-    </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT145" s="9"/>
+      <c r="AU145" s="9"/>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -8060,8 +8460,10 @@
       <c r="AQ146" s="9"/>
       <c r="AR146" s="9"/>
       <c r="AS146" s="9"/>
-    </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT146" s="9"/>
+      <c r="AU146" s="9"/>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -8107,8 +8509,10 @@
       <c r="AQ147" s="9"/>
       <c r="AR147" s="9"/>
       <c r="AS147" s="9"/>
-    </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT147" s="9"/>
+      <c r="AU147" s="9"/>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -8154,8 +8558,10 @@
       <c r="AQ148" s="9"/>
       <c r="AR148" s="9"/>
       <c r="AS148" s="9"/>
-    </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT148" s="9"/>
+      <c r="AU148" s="9"/>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -8201,8 +8607,10 @@
       <c r="AQ149" s="9"/>
       <c r="AR149" s="9"/>
       <c r="AS149" s="9"/>
-    </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT149" s="9"/>
+      <c r="AU149" s="9"/>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -8248,8 +8656,10 @@
       <c r="AQ150" s="9"/>
       <c r="AR150" s="9"/>
       <c r="AS150" s="9"/>
-    </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT150" s="9"/>
+      <c r="AU150" s="9"/>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -8295,8 +8705,10 @@
       <c r="AQ151" s="9"/>
       <c r="AR151" s="9"/>
       <c r="AS151" s="9"/>
-    </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT151" s="9"/>
+      <c r="AU151" s="9"/>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -8342,8 +8754,10 @@
       <c r="AQ152" s="9"/>
       <c r="AR152" s="9"/>
       <c r="AS152" s="9"/>
-    </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT152" s="9"/>
+      <c r="AU152" s="9"/>
+    </row>
+    <row r="153" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -8389,8 +8803,10 @@
       <c r="AQ153" s="9"/>
       <c r="AR153" s="9"/>
       <c r="AS153" s="9"/>
-    </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT153" s="9"/>
+      <c r="AU153" s="9"/>
+    </row>
+    <row r="154" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -8436,8 +8852,10 @@
       <c r="AQ154" s="9"/>
       <c r="AR154" s="9"/>
       <c r="AS154" s="9"/>
-    </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT154" s="9"/>
+      <c r="AU154" s="9"/>
+    </row>
+    <row r="155" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -8483,8 +8901,10 @@
       <c r="AQ155" s="9"/>
       <c r="AR155" s="9"/>
       <c r="AS155" s="9"/>
-    </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT155" s="9"/>
+      <c r="AU155" s="9"/>
+    </row>
+    <row r="156" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -8530,8 +8950,10 @@
       <c r="AQ156" s="9"/>
       <c r="AR156" s="9"/>
       <c r="AS156" s="9"/>
-    </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT156" s="9"/>
+      <c r="AU156" s="9"/>
+    </row>
+    <row r="157" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -8577,8 +8999,10 @@
       <c r="AQ157" s="9"/>
       <c r="AR157" s="9"/>
       <c r="AS157" s="9"/>
-    </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT157" s="9"/>
+      <c r="AU157" s="9"/>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8624,8 +9048,10 @@
       <c r="AQ158" s="9"/>
       <c r="AR158" s="9"/>
       <c r="AS158" s="9"/>
-    </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT158" s="9"/>
+      <c r="AU158" s="9"/>
+    </row>
+    <row r="159" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8671,8 +9097,10 @@
       <c r="AQ159" s="9"/>
       <c r="AR159" s="9"/>
       <c r="AS159" s="9"/>
-    </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT159" s="9"/>
+      <c r="AU159" s="9"/>
+    </row>
+    <row r="160" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8718,8 +9146,10 @@
       <c r="AQ160" s="9"/>
       <c r="AR160" s="9"/>
       <c r="AS160" s="9"/>
-    </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT160" s="9"/>
+      <c r="AU160" s="9"/>
+    </row>
+    <row r="161" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -8765,29 +9195,42 @@
       <c r="AQ161" s="9"/>
       <c r="AR161" s="9"/>
       <c r="AS161" s="9"/>
+      <c r="AT161" s="9"/>
+      <c r="AU161" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:AC1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B11:D11 B2:D2 B4:D7 B19:D1048576 E5:P5">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  <conditionalFormatting sqref="B2:D2 B4:D7 B19:D1048576 E5:P5 R5">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"60_69"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"70_79"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"60_69"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"50_59"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 A4:A7 A19:A1048576">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8798,7 +9241,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A2 A4:A7 A19:A1048576">
+  <conditionalFormatting sqref="A1">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8809,7 +9252,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="B3:D3">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8820,7 +9263,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D3">
+  <conditionalFormatting sqref="A3">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8831,7 +9274,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="B13:D18">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8842,7 +9285,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:D18">
+  <conditionalFormatting sqref="A13:A18">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8853,7 +9296,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A18">
+  <conditionalFormatting sqref="Q5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
